--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_451__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_451__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,16 +5873,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>3.936582088470459</c:v>
+                  <c:v>3.936575174331665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.11066055297852</c:v>
+                  <c:v>16.11067008972168</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.12513065338135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.635004997253418</c:v>
+                  <c:v>8.635002136230469</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44.13951873779297</c:v>
@@ -5894,259 +5894,259 @@
                   <c:v>34.8712158203125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.89891719818115</c:v>
+                  <c:v>10.8989200592041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.3753547668457</c:v>
+                  <c:v>11.37536239624023</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2584496736526489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.47152328491211</c:v>
+                  <c:v>31.47152709960938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.268321752548218</c:v>
+                  <c:v>3.268328666687012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.73736763000488</c:v>
+                  <c:v>27.73736000061035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.74497509002686</c:v>
+                  <c:v>12.74497032165527</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.91325569152832</c:v>
+                  <c:v>8.913249015808105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.95530700683594</c:v>
+                  <c:v>31.9553050994873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.5768985748291</c:v>
+                  <c:v>26.57689476013184</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18.26029586791992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.69094657897949</c:v>
+                  <c:v>12.69094181060791</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>21.13641548156738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.24455833435059</c:v>
+                  <c:v>29.24456405639648</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.67349815368652</c:v>
+                  <c:v>12.67351245880127</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20.06935119628906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.95314788818359</c:v>
+                  <c:v>27.9531421661377</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.717437267303467</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.6417064666748</c:v>
+                  <c:v>12.64171123504639</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.76565170288086</c:v>
+                  <c:v>20.76565361022949</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.34512901306152</c:v>
+                  <c:v>18.34512710571289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.0357551574707</c:v>
+                  <c:v>24.03574562072754</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.95778656005859</c:v>
+                  <c:v>20.95778274536133</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.48476982116699</c:v>
+                  <c:v>23.48476409912109</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.904312133789062</c:v>
+                  <c:v>9.904308319091797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.18466949462891</c:v>
+                  <c:v>22.18467712402344</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.94016456604004</c:v>
+                  <c:v>13.94016647338867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.54518127441406</c:v>
+                  <c:v>11.54518604278564</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.33061218261719</c:v>
+                  <c:v>35.33061599731445</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.89911937713623</c:v>
+                  <c:v>8.899125099182129</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.610007286071777</c:v>
+                  <c:v>4.610021114349365</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.45393562316895</c:v>
+                  <c:v>13.4539213180542</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.84920883178711</c:v>
+                  <c:v>18.84920501708984</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.36153221130371</c:v>
+                  <c:v>25.36153602600098</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.37177658081055</c:v>
+                  <c:v>30.37177848815918</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.09225787222385406</c:v>
+                  <c:v>0.09226191788911819</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>21.5433235168457</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.19967842102051</c:v>
+                  <c:v>27.19969749450684</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>15.57222461700439</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.55127620697021</c:v>
+                  <c:v>15.5512809753418</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>16.79123306274414</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.54600715637207</c:v>
+                  <c:v>21.54601860046387</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.17903137207031</c:v>
+                  <c:v>20.17903709411621</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.79178905487061</c:v>
+                  <c:v>13.79179096221924</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.65320205688477</c:v>
+                  <c:v>16.65319442749023</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.61992073059082</c:v>
+                  <c:v>25.61992645263672</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18.10553169250488</c:v>
+                  <c:v>18.10552597045898</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.39196014404297</c:v>
+                  <c:v>22.39194869995117</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.04053688049316</c:v>
+                  <c:v>22.04055595397949</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.209588527679443</c:v>
+                  <c:v>7.209581851959229</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.88976097106934</c:v>
+                  <c:v>16.8897590637207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.576064109802246</c:v>
+                  <c:v>5.576059341430664</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.58522796630859</c:v>
+                  <c:v>21.58522415161133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.71020889282227</c:v>
+                  <c:v>25.7101993560791</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>13.81499862670898</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>33.06437683105469</c:v>
+                  <c:v>33.06436920166016</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.66810607910156</c:v>
+                  <c:v>21.66810989379883</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.0710506439209</c:v>
+                  <c:v>12.07106018066406</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>19.26451683044434</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.8551139831543</c:v>
+                  <c:v>16.85510444641113</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.54782295227051</c:v>
+                  <c:v>17.54781913757324</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.17698860168457</c:v>
+                  <c:v>9.176997184753418</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.19692897796631</c:v>
+                  <c:v>15.19692039489746</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20.66512298583984</c:v>
+                  <c:v>20.66510772705078</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>31.41938781738281</c:v>
+                  <c:v>31.41939163208008</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.48742485046387</c:v>
+                  <c:v>15.48742866516113</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>10.99163722991943</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22.86687469482422</c:v>
+                  <c:v>22.86686325073242</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20.54121208190918</c:v>
+                  <c:v>20.54121398925781</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.599294662475586</c:v>
+                  <c:v>9.599291801452637</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.2938551902771</c:v>
+                  <c:v>2.29386043548584</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.49142265319824</c:v>
+                  <c:v>24.49140930175781</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.018194198608398</c:v>
+                  <c:v>-4.018198490142822</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>16.37081336975098</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.22892761230469</c:v>
+                  <c:v>19.22892570495605</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.30652046203613</c:v>
+                  <c:v>20.30652236938477</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.39177131652832</c:v>
+                  <c:v>25.39177703857422</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.34228324890137</c:v>
+                  <c:v>15.34228897094727</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.096112966537476</c:v>
+                  <c:v>1.096116900444031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.314629077911377</c:v>
+                  <c:v>6.314634323120117</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.74472999572754</c:v>
+                  <c:v>31.74474906921387</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>15.82062149047852</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.007461547851562</c:v>
+                  <c:v>9.00745677947998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.94318389892578</c:v>
+                  <c:v>19.94317817687988</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.990432739257812</c:v>
+                  <c:v>8.990427017211914</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>17.43810081481934</c:v>
@@ -6155,16 +6155,16 @@
                   <c:v>16.23418045043945</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.2629553377628326</c:v>
+                  <c:v>-0.2629541754722595</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.02516555786133</c:v>
+                  <c:v>26.02515983581543</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>17.35723114013672</c:v>
+                  <c:v>17.35722541809082</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.97613716125488</c:v>
+                  <c:v>28.97614288330078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.936582088470459</v>
+        <v>3.936575174331665</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>16.11066055297852</v>
+        <v>16.11067008972168</v>
       </c>
       <c r="G3">
         <v>85</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.635004997253418</v>
+        <v>8.635002136230469</v>
       </c>
       <c r="G5">
         <v>85</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.89891719818115</v>
+        <v>10.8989200592041</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.3753547668457</v>
+        <v>11.37536239624023</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.47152328491211</v>
+        <v>31.47152709960938</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>3.268321752548218</v>
+        <v>3.268328666687012</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.73736763000488</v>
+        <v>27.73736000061035</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12.74497509002686</v>
+        <v>12.74497032165527</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>8.91325569152832</v>
+        <v>8.913249015808105</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>31.95530700683594</v>
+        <v>31.9553050994873</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.5768985748291</v>
+        <v>26.57689476013184</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.69094657897949</v>
+        <v>12.69094181060791</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.24455833435059</v>
+        <v>29.24456405639648</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.67349815368652</v>
+        <v>12.67351245880127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.95314788818359</v>
+        <v>27.9531421661377</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>12.6417064666748</v>
+        <v>12.64171123504639</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>20.76565170288086</v>
+        <v>20.76565361022949</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18.34512901306152</v>
+        <v>18.34512710571289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>24.0357551574707</v>
+        <v>24.03574562072754</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.95778656005859</v>
+        <v>20.95778274536133</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>23.48476982116699</v>
+        <v>23.48476409912109</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9.904312133789062</v>
+        <v>9.904308319091797</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.18466949462891</v>
+        <v>22.18467712402344</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.94016456604004</v>
+        <v>13.94016647338867</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>11.54518127441406</v>
+        <v>11.54518604278564</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>35.33061218261719</v>
+        <v>35.33061599731445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.89911937713623</v>
+        <v>8.899125099182129</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.610007286071777</v>
+        <v>4.610021114349365</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.45393562316895</v>
+        <v>13.4539213180542</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>18.84920883178711</v>
+        <v>18.84920501708984</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25.36153221130371</v>
+        <v>25.36153602600098</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>30.37177658081055</v>
+        <v>30.37177848815918</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.09225787222385406</v>
+        <v>0.09226191788911819</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>27.19967842102051</v>
+        <v>27.19969749450684</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>15.55127620697021</v>
+        <v>15.5512809753418</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.54600715637207</v>
+        <v>21.54601860046387</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20.17903137207031</v>
+        <v>20.17903709411621</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>13.79178905487061</v>
+        <v>13.79179096221924</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.65320205688477</v>
+        <v>16.65319442749023</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>25.61992073059082</v>
+        <v>25.61992645263672</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>18.10553169250488</v>
+        <v>18.10552597045898</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>22.39196014404297</v>
+        <v>22.39194869995117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>22.04053688049316</v>
+        <v>22.04055595397949</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.209588527679443</v>
+        <v>7.209581851959229</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>16.88976097106934</v>
+        <v>16.8897590637207</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>5.576064109802246</v>
+        <v>5.576059341430664</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.58522796630859</v>
+        <v>21.58522415161133</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>25.71020889282227</v>
+        <v>25.7101993560791</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>33.06437683105469</v>
+        <v>33.06436920166016</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>21.66810607910156</v>
+        <v>21.66810989379883</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>12.0710506439209</v>
+        <v>12.07106018066406</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>16.8551139831543</v>
+        <v>16.85510444641113</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.54782295227051</v>
+        <v>17.54781913757324</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.17698860168457</v>
+        <v>9.176997184753418</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>15.19692897796631</v>
+        <v>15.19692039489746</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>20.66512298583984</v>
+        <v>20.66510772705078</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>31.41938781738281</v>
+        <v>31.41939163208008</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.48742485046387</v>
+        <v>15.48742866516113</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>22.86687469482422</v>
+        <v>22.86686325073242</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>20.54121208190918</v>
+        <v>20.54121398925781</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>9.599294662475586</v>
+        <v>9.599291801452637</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.2938551902771</v>
+        <v>2.29386043548584</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>24.49142265319824</v>
+        <v>24.49140930175781</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-4.018194198608398</v>
+        <v>-4.018198490142822</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.22892761230469</v>
+        <v>19.22892570495605</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>20.30652046203613</v>
+        <v>20.30652236938477</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>25.39177131652832</v>
+        <v>25.39177703857422</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>15.34228324890137</v>
+        <v>15.34228897094727</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.096112966537476</v>
+        <v>1.096116900444031</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.314629077911377</v>
+        <v>6.314634323120117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>31.74472999572754</v>
+        <v>31.74474906921387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>9.007461547851562</v>
+        <v>9.00745677947998</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>19.94318389892578</v>
+        <v>19.94317817687988</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.990432739257812</v>
+        <v>8.990427017211914</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-0.2629553377628326</v>
+        <v>-0.2629541754722595</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>26.02516555786133</v>
+        <v>26.02515983581543</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>17.35723114013672</v>
+        <v>17.35722541809082</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.97613716125488</v>
+        <v>28.97614288330078</v>
       </c>
     </row>
     <row r="100" spans="1:6">
